--- a/data/income_statement/3digits/total/822_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/822_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>822-Activities of call centres</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>822-Activities of call centres</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>709041.14897</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>710542.1403099999</v>
+        <v>1013728.06801</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>1330031.48058</v>
@@ -965,34 +871,39 @@
         <v>1921166.25057</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2362299.51974</v>
+        <v>2422107.32278</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1957696.89347</v>
+        <v>2736587.343</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3173909.67797</v>
+        <v>3262104.52523</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>3901486.70553</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4781390.450449999</v>
+        <v>4791277.022459999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6018428.35975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6038355.93176</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7703772.062</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>603728.79363</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>608923.97348</v>
+        <v>910644.69351</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>1197657.87301</v>
@@ -1004,34 +915,39 @@
         <v>1747148.73216</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2130893.20189</v>
+        <v>2189640.00069</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1662942.07378</v>
+        <v>2439675.40147</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2820569.827430001</v>
+        <v>2908465.62371</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3353841.86287</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3906830.73058</v>
+        <v>3910210.114020001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4851912.293670001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4860264.89932</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6051179.667</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>99262.42602000001</v>
+        <v>99262.42602</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>89116.64103</v>
+        <v>90251.00451</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>114328.35743</v>
@@ -1046,31 +962,36 @@
         <v>173675.21653</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>211103.35204</v>
+        <v>212752.48447</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>256816.35317</v>
+        <v>257014.78992</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>380595.31358</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>662420.3632500001</v>
+        <v>667809.07051</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>864199.7851799999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>873814.9255199999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1288898.569</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>6049.92932</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>12501.5258</v>
+        <v>12832.36999</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>18045.25014</v>
@@ -1082,34 +1003,39 @@
         <v>28267.55327</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>57731.10132</v>
+        <v>58792.10556</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>83651.46765000001</v>
+        <v>84159.45706</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>96523.49736999998</v>
+        <v>96624.11159999997</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>167049.52908</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>212139.35662</v>
+        <v>213257.83793</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>302316.2809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>304276.10692</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>363693.826</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>7010.86344</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7395.76675</v>
+        <v>8455.60173</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>11155.00203</v>
@@ -1124,7 +1050,7 @@
         <v>17842.78852</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11812.27193</v>
+        <v>15357.15631</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>59846.55747</v>
@@ -1136,19 +1062,24 @@
         <v>46746.37033</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>64930.15565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>64930.7407</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>69632.842</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5528.69377</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>7140.547070000001</v>
+        <v>8200.38205</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>10159.50323</v>
@@ -1163,7 +1094,7 @@
         <v>17493.43411</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11470.701</v>
+        <v>15015.58538</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>57975.27093</v>
@@ -1175,13 +1106,18 @@
         <v>44683.3869</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>60777.58803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>60778.17308</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>53534.368</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1482.16967</v>
@@ -1196,7 +1132,7 @@
         <v>884.4915500000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>622.0778499999999</v>
+        <v>622.07785</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>285.72104</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>3761.87396</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>9265.401</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,17 +1196,22 @@
       <c r="M12" s="48" t="n">
         <v>390.69366</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>6833.073</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>702030.28553</v>
+        <v>702030.2855300001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>703146.37356</v>
+        <v>1005272.46628</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>1318876.47855</v>
@@ -1277,34 +1223,39 @@
         <v>1906635.47767</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2344456.73122</v>
+        <v>2404264.53426</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1945884.62154</v>
+        <v>2721230.18669</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3114063.1205</v>
+        <v>3202257.96776</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3864321.02269</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4734644.080120001</v>
+        <v>4744530.65213</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5953498.2041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5973425.19106</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7634139.22</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>577138.7334199999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>539868.79213</v>
+        <v>800839.50771</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>1023444.64204</v>
@@ -1316,28 +1267,33 @@
         <v>1493633.58532</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1766508.14707</v>
+        <v>1806480.28494</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1367766.95759</v>
+        <v>2063859.67335</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2416562.05144</v>
+        <v>2427759.4646</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2875712.98087</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3679802.62638</v>
+        <v>3684583.2665</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4775904.51832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4783310.662769999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5751818.275</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>143.90827</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>200762.58229</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>43796.505</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>26365.07229</v>
@@ -1394,34 +1355,39 @@
         <v>40118.47656</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>37856.86655</v>
+        <v>38349.1774</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>59595.71956000001</v>
+        <v>63855.25186</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>45829.31907</v>
+        <v>49435.04142</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>53736.02906999999</v>
+        <v>53736.02907</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>59027.21395</v>
+        <v>60627.11739</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>104807.69987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>104993.21805</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>179057.942</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>550500.8614599999</v>
+        <v>550500.86146</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>509194.99314</v>
+        <v>770165.70872</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>962221.1426200001</v>
@@ -1433,28 +1399,33 @@
         <v>1452886.01117</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1728532.15564</v>
+        <v>1768011.98266</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1307448.04706</v>
+        <v>1999281.23052</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2367631.61662</v>
+        <v>2375223.30743</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2816666.008200001</v>
+        <v>2816666.0082</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3608113.49219</v>
+        <v>3610088.44882</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4465768.39344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4471900.70164</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5527991.902</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>128.8914</v>
@@ -1478,28 +1449,33 @@
         <v>174.86999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>505.34758</v>
+        <v>505.3475799999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3421.708500000001</v>
+        <v>3421.7085</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1494.68828</v>
+        <v>2700.46833</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4565.84272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5654.16079</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>971.926</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>124891.55211</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>163277.58143</v>
+        <v>204432.95857</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>295431.83651</v>
@@ -1511,34 +1487,39 @@
         <v>413001.89235</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>577948.58415</v>
+        <v>597784.2493199999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>578117.6639500001</v>
+        <v>657370.5133399999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>697501.0690599999</v>
+        <v>774498.5031600001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>988608.04182</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1054841.45374</v>
+        <v>1059947.38563</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1177593.68578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1190114.52829</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1882320.945</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>122410.08854</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>154322.97698</v>
+        <v>185824.96769</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>244631.82162</v>
@@ -1550,28 +1531,33 @@
         <v>319272.32989</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>475120.6339600001</v>
+        <v>490363.11333</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>486773.6546300001</v>
+        <v>559927.1464000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>551531.43275</v>
+        <v>623652.2079100001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>762100.0039799999</v>
+        <v>762100.00398</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>833167.1934400001</v>
+        <v>838847.87131</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>960057.50951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>967546.39001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1203304.009</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>252.49115</v>
@@ -1604,13 +1590,18 @@
         <v>24.35809</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>624.57259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>688.44759</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>901.703</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>10173.00337</v>
@@ -1628,34 +1619,39 @@
         <v>36500.81587000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>86657.71615000001</v>
+        <v>87446.85241999998</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>78587.88191</v>
+        <v>85073.36633</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>42337.65128</v>
+        <v>99978.24366999998</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>108649.85302</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>101855.04501</v>
+        <v>102463.18468</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>116540.06223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>117973.84692</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>148192.969</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>111984.59402</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>127963.84387</v>
+        <v>159465.83458</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>201855.79243</v>
@@ -1667,34 +1663,39 @@
         <v>282416.9337000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>387945.38645</v>
+        <v>402398.72955</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>407764.1319500001</v>
+        <v>474432.1393</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>509193.78147</v>
+        <v>523673.96424</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>653393.1566900001</v>
+        <v>653393.15669</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>731287.7903400001</v>
+        <v>736360.3285400001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>842892.8746900001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>848884.0955000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1054209.337</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2481.46357</v>
+        <v>2481.463570000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>8954.604449999999</v>
+        <v>18607.99088</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>50800.01489</v>
@@ -1706,34 +1707,39 @@
         <v>93729.56245999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>102827.95019</v>
+        <v>107421.13599</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>91344.00932</v>
+        <v>97443.36693999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>145969.63631</v>
+        <v>150846.29525</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>226508.03784</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>221674.2603</v>
+        <v>221099.51432</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>217536.17627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>222568.13828</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>679016.936</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>15548.91224</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>12908.85661</v>
+        <v>16114.11481</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>17276.30909</v>
@@ -1745,34 +1751,39 @@
         <v>25015.73288</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>31357.13393</v>
+        <v>31375.142</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>50145.34901999999</v>
+        <v>58205.49873</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>70715.53096999999</v>
+        <v>70974.12566000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>88911.80050000001</v>
+        <v>88911.8005</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>172384.74388</v>
+        <v>172486.15269</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>163664.91327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>164026.65701</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>286288.419</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.14737</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>9.466569999999999</v>
+        <v>9.48634</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>239.16058</v>
@@ -1787,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>156.22</v>
+        <v>163.43111</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>7.70367</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>12.30405</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5570.31</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>273.6</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>198.03784</v>
@@ -1826,7 +1842,7 @@
         <v>143.98211</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>54.2584</v>
+        <v>432.02678</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>1083.13702</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4002.98461</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2596.27023</v>
+        <v>4985.79896</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>5321.0964</v>
@@ -1862,13 +1883,13 @@
         <v>6162.5119</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>11037.24851</v>
+        <v>11044.13459</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>10094.87545</v>
+        <v>14103.25293</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>19466.56048</v>
+        <v>19652.24964</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>25946.20972</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>44103.60887</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>36337.783</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>63.60281</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>26.549</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>53.1426</v>
@@ -1943,7 +1974,7 @@
         <v>619.40275</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2496.98731</v>
+        <v>2509.20291</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10012.82454</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1370.83414</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1315.653</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>141.39973</v>
@@ -1982,34 +2018,39 @@
         <v>111.79872</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>439.0473000000001</v>
+        <v>442.02386</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1095.54417</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>322.12617</v>
+        <v>322.1261700000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>476.69252</v>
+        <v>476.6925199999999</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>862.3476999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1492.939</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5542.324550000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5405.44429</v>
+        <v>5502.739189999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>7503.77478</v>
+        <v>7503.774780000002</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>6173.94449</v>
@@ -2018,28 +2059,33 @@
         <v>10170.03275</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>10390.87613</v>
+        <v>10401.99812</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>17522.88466</v>
+        <v>20076.55368</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>18338.37403</v>
+        <v>18344.06552</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>26874.12152</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>96655.49467</v>
+        <v>96710.57009000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>68239.04446999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>68589.51202000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>180880.218</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>31.575</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>5745.310570000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4515.40517</v>
+        <v>4960.21997</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>2559.67344</v>
@@ -2132,37 +2188,42 @@
         <v>4455.37854</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7161.383259999999</v>
+        <v>7161.38326</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>8927.38061</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>19377.47637</v>
+        <v>20475.40793</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>21793.08906</v>
+        <v>21860.3031</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>33968.99542</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>36673.46776000001</v>
+        <v>36719.80115</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>47987.63701999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>47998.91321</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>60633.392</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>7027.68704</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7495.71753</v>
+        <v>7603.19419</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>12508.20374</v>
@@ -2174,28 +2235,33 @@
         <v>32333.96176</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19157.8618</v>
+        <v>19713.47689</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>24385.42208</v>
+        <v>27863.33802</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>30607.96697</v>
+        <v>30616.67924</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>48187.09701999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>141995.17806</v>
+        <v>142119.42935</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>89800.6998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>89901.21747</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>172124.77</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>773.17905</v>
@@ -2228,19 +2294,24 @@
         <v>3257.3374</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3317.31276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3332.25555</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1518.955</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>905.7872100000001</v>
+        <v>905.78721</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>673.9807499999999</v>
+        <v>696.05606</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>870.4763799999999</v>
@@ -2255,7 +2326,7 @@
         <v>2238.18993</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3757.57839</v>
+        <v>3760.16573</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>4076.08042</v>
@@ -2264,16 +2335,21 @@
         <v>3890.69004</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>7134.845089999999</v>
+        <v>7134.84509</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>555.53273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>826.9241</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5709.632</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2306,19 +2382,24 @@
         <v>799.4797</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>597.35464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>325.96327</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>765.317</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>5119.1548</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4918.39995</v>
+        <v>5003.801300000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>8938.483039999999</v>
@@ -2330,28 +2411,33 @@
         <v>10862.07339</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>11985.66057</v>
+        <v>12541.27566</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>17781.4987</v>
+        <v>21256.8273</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>22319.20582</v>
+        <v>22327.91764</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>33983.70675</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>125147.13374</v>
+        <v>125271.385</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>75426.17912</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>76396.94209</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>152754.621</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2384,13 +2470,18 @@
         <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>885.25312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>20.5903</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>229.56598</v>
@@ -2453,28 +2549,33 @@
         <v>309.37002</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1434.34821</v>
+        <v>1434.34866</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8152.83184</v>
+        <v>8152.831839999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5656.382130000001</v>
+        <v>5656.38216</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>8998.477130000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8998.542160000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11376.245</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2214.96521</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3124.33836</v>
+        <v>3189.19058</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>8518.267760000001</v>
@@ -2486,34 +2587,39 @@
         <v>15203.91574</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16616.0543</v>
+        <v>20892.83004</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>22358.61478</v>
+        <v>28349.3577</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>45697.63476</v>
+        <v>45916.94016</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>59686.28672</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>85038.76332000001</v>
+        <v>85080.0208</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>88873.35318000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>88910.88073</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>77511.307</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>2152.2544</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2639.878110000001</v>
+        <v>2704.73033</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>7582.589099999999</v>
@@ -2525,28 +2631,33 @@
         <v>13464.82954</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>16532.44545</v>
+        <v>20809.22119</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>21187.11859</v>
+        <v>27051.24038</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>43954.42425</v>
+        <v>44173.72965</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>58160.31427999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>81858.26777999999</v>
+        <v>81859.35656</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>87531.01488999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>87568.54244</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>75031.34299999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>62.71081</v>
@@ -2567,7 +2678,7 @@
         <v>83.60885</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1171.49619</v>
+        <v>1298.11732</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>1743.21051</v>
@@ -2576,22 +2687,27 @@
         <v>1525.97244</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3180.495539999999</v>
+        <v>3220.66424</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>1342.33829</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2479.964</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>8787.72356</v>
+        <v>8787.723559999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11243.40517</v>
+        <v>23929.72092</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>47049.85248</v>
@@ -2603,37 +2719,42 @@
         <v>71207.41784000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>98411.16802</v>
+        <v>98189.97106</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>94745.32148</v>
+        <v>99436.16994999998</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>140379.56555</v>
+        <v>145286.80151</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>207546.4546</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>167025.0628</v>
+        <v>166386.21686</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>202527.03656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>207782.69709</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>715669.278</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6797.36373</v>
+        <v>6797.363729999998</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4384.98938</v>
+        <v>4652.14884</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8593.900959999999</v>
+        <v>8593.900960000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>13369.42901</v>
@@ -2642,34 +2763,39 @@
         <v>16899.03954</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>15255.15672</v>
+        <v>15477.83184</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>31035.67419</v>
+        <v>34927.54700999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>32355.60188</v>
+        <v>32419.94679</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>42741.29800000001</v>
+        <v>42741.298</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>47028.48636</v>
+        <v>48492.38535</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>92019.03542000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>92309.20172</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>117386.238</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>73.64391999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>94.63212</v>
+        <v>95.2985</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>38.86915999999999</v>
@@ -2684,13 +2810,13 @@
         <v>478.51539</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>421.06317</v>
+        <v>1282.34546</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>4320.67102</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4710.14793</v>
+        <v>4710.147930000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>3957.30411</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>5997.69619</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3499.04</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>6723.719810000001</v>
+        <v>6723.71981</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4290.35726</v>
+        <v>4556.85034</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>8555.031800000001</v>
@@ -2720,34 +2851,39 @@
         <v>16524.49851</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>14776.64133</v>
+        <v>14999.31645</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>30614.61102</v>
+        <v>33645.20155000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>28034.93086</v>
+        <v>28099.27577</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>38031.15007</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>43071.18225</v>
+        <v>44535.08124</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>86021.33923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>86311.50552999998</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>113887.198</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6247.823359999999</v>
+        <v>6247.82336</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6099.43004</v>
+        <v>6156.50893</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>27144.79212</v>
@@ -2759,28 +2895,33 @@
         <v>22231.12539</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>42366.96202000001</v>
+        <v>42814.25912</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19170.11355</v>
+        <v>20593.47069</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>37114.68627999999</v>
+        <v>37167.28164</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>27721.57487</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>74614.22966</v>
+        <v>74663.76513</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>27051.66082</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>27148.60351</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>39304.755</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>215.88621</v>
@@ -2815,23 +2956,28 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>110.021</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2450.70427</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2250.66531</v>
+        <v>2280.75347</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>272.22579</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>485.13567</v>
+        <v>485.1356700000001</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>1003.25632</v>
@@ -2840,7 +2986,7 @@
         <v>17807.80358</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>668.67241</v>
+        <v>966.1440700000001</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>3664.01936</v>
@@ -2849,22 +2995,27 @@
         <v>2931.19199</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>14746.80767</v>
+        <v>14773.97394</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5613.04934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5618.38253</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4964.727</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3581.23288</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3848.76473</v>
+        <v>3875.75546</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>26872.56633</v>
@@ -2876,34 +3027,39 @@
         <v>21227.86907</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>24556.95542</v>
+        <v>25004.25252</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11376.56623</v>
+        <v>12502.45171</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>33445.94959</v>
+        <v>33498.54495</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>24790.38288</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>59866.33133</v>
+        <v>59888.70053</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>21438.61148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>21530.22098</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>34230.007</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>9337.263929999999</v>
+        <v>9337.263930000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>9528.96451</v>
+        <v>22425.36083</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>28498.96132</v>
@@ -2915,34 +3071,39 @@
         <v>65875.33198999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>71299.36272</v>
+        <v>70853.54378000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>106610.88212</v>
+        <v>113770.24627</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>135620.48115</v>
+        <v>140539.46666</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>222566.17773</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>139439.3195</v>
+        <v>140214.83708</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>267494.41116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>272943.2953</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>793750.7610000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>7856.01666</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6302.005799999999</v>
+        <v>9684.357169999999</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>10376.85722</v>
@@ -2954,34 +3115,39 @@
         <v>12376.18561</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>17225.20804</v>
+        <v>17243.07936</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>11380.27199</v>
+        <v>17361.39306</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>29610.96363</v>
+        <v>29614.19603</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>38024.62108</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>38331.41558</v>
+        <v>38392.74619</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>58862.17763000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>59143.63072</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>122132.292</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1481.247270000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3226.958710000001</v>
+        <v>12741.00366</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>18122.1041</v>
@@ -2993,25 +3159,28 @@
         <v>53499.14638</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>54074.15468000001</v>
+        <v>53610.46442</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>95230.61013</v>
+        <v>96408.85320999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>106009.51752</v>
+        <v>110925.27063</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>184541.55665</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>101107.90392</v>
+        <v>101822.09089</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>208632.23353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>213799.66458</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>671618.469</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,17 +3194,20 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>122</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E59" s="35" t="n">
         <v>202</v>
@@ -3047,25 +3219,28 @@
         <v>299</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>433</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>553</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>